--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1177.189100610676</v>
+        <v>1289.252200242818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1610.682061373334</v>
+        <v>1764.011738165066</v>
       </c>
       <c r="AC2" t="n">
-        <v>1456.960826042334</v>
+        <v>1595.656933680616</v>
       </c>
       <c r="AD2" t="n">
-        <v>1177189.100610676</v>
+        <v>1289252.200242818</v>
       </c>
       <c r="AE2" t="n">
-        <v>1610682.061373334</v>
+        <v>1764011.738165066</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.276500411426396e-06</v>
+        <v>1.840285217888978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.80859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1456960.826042334</v>
+        <v>1595656.933680616</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.1260926669327</v>
+        <v>634.5597567438681</v>
       </c>
       <c r="AB3" t="n">
-        <v>785.5446486424997</v>
+        <v>868.2326539776548</v>
       </c>
       <c r="AC3" t="n">
-        <v>710.5733698948976</v>
+        <v>785.36974805421</v>
       </c>
       <c r="AD3" t="n">
-        <v>574126.0926669326</v>
+        <v>634559.7567438681</v>
       </c>
       <c r="AE3" t="n">
-        <v>785544.6486424997</v>
+        <v>868232.6539776548</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.003728447163684e-06</v>
+        <v>2.888703998033598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>710573.3698948976</v>
+        <v>785369.7480542101</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.1512414469685</v>
+        <v>520.4142238147607</v>
       </c>
       <c r="AB4" t="n">
-        <v>629.5992289877827</v>
+        <v>712.0537000785425</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.5111622212557</v>
+        <v>644.0962943166903</v>
       </c>
       <c r="AD4" t="n">
-        <v>460151.2414469685</v>
+        <v>520414.2238147607</v>
       </c>
       <c r="AE4" t="n">
-        <v>629599.2289877827</v>
+        <v>712053.7000785426</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.279158246293867e-06</v>
+        <v>3.285781338054991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33658854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>569511.1622212557</v>
+        <v>644096.2943166903</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.6125633436473</v>
+        <v>452.3275187705277</v>
       </c>
       <c r="AB5" t="n">
-        <v>548.1357829457212</v>
+        <v>618.8944664635919</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.8224731347839</v>
+        <v>559.8280472081451</v>
       </c>
       <c r="AD5" t="n">
-        <v>400612.5633436473</v>
+        <v>452327.5187705277</v>
       </c>
       <c r="AE5" t="n">
-        <v>548135.7829457212</v>
+        <v>618894.4664635919</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.436853477050097e-06</v>
+        <v>3.513124940528256e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.470703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>495822.4731347839</v>
+        <v>559828.0472081451</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>376.9686954150959</v>
+        <v>428.6836508419761</v>
       </c>
       <c r="AB6" t="n">
-        <v>515.785199752042</v>
+        <v>586.5438832699128</v>
       </c>
       <c r="AC6" t="n">
-        <v>466.5593841967808</v>
+        <v>530.5649582701419</v>
       </c>
       <c r="AD6" t="n">
-        <v>376968.6954150959</v>
+        <v>428683.6508419762</v>
       </c>
       <c r="AE6" t="n">
-        <v>515785.199752042</v>
+        <v>586543.8832699128</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505477511748634e-06</v>
+        <v>3.612057769313247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>466559.3841967808</v>
+        <v>530564.958270142</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>378.2412234571181</v>
+        <v>429.9561788839984</v>
       </c>
       <c r="AB7" t="n">
-        <v>517.5263287591117</v>
+        <v>588.2850122769826</v>
       </c>
       <c r="AC7" t="n">
-        <v>468.1343422951057</v>
+        <v>532.1399163684669</v>
       </c>
       <c r="AD7" t="n">
-        <v>378241.223457118</v>
+        <v>429956.1788839984</v>
       </c>
       <c r="AE7" t="n">
-        <v>517526.3287591117</v>
+        <v>588285.0122769825</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.505477511748634e-06</v>
+        <v>3.612057769313247e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>468134.3422951057</v>
+        <v>532139.9163684668</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.8920685615823</v>
+        <v>913.981052765592</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.494940460059</v>
+        <v>1250.549198392148</v>
       </c>
       <c r="AC2" t="n">
-        <v>1027.124897019709</v>
+        <v>1131.198538054424</v>
       </c>
       <c r="AD2" t="n">
-        <v>829892.0685615822</v>
+        <v>913981.052765592</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135494.940460059</v>
+        <v>1250549.198392148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570582596202629e-06</v>
+        <v>2.299273837167994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.01953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1027124.897019709</v>
+        <v>1131198.538054424</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.1250786804542</v>
+        <v>519.2937854113352</v>
       </c>
       <c r="AB3" t="n">
-        <v>618.6174790013271</v>
+        <v>710.5206668247218</v>
       </c>
       <c r="AC3" t="n">
-        <v>559.5774950405244</v>
+        <v>642.7095716049887</v>
       </c>
       <c r="AD3" t="n">
-        <v>452125.0786804542</v>
+        <v>519293.7854113352</v>
       </c>
       <c r="AE3" t="n">
-        <v>618617.4790013271</v>
+        <v>710520.6668247218</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251319705730711e-06</v>
+        <v>3.295847356899869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>559577.4950405244</v>
+        <v>642709.5716049887</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.0665360700247</v>
+        <v>418.6564182546145</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.6048726005633</v>
+        <v>572.8241812736036</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.5415303734427</v>
+        <v>518.154645376638</v>
       </c>
       <c r="AD4" t="n">
-        <v>368066.5360700247</v>
+        <v>418656.4182546145</v>
       </c>
       <c r="AE4" t="n">
-        <v>503604.8726005633</v>
+        <v>572824.1812736036</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.512584444844425e-06</v>
+        <v>3.678329106456441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>455541.5303734427</v>
+        <v>518154.6453766379</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.5334849721251</v>
+        <v>402.9527749561226</v>
       </c>
       <c r="AB5" t="n">
-        <v>482.3518668185664</v>
+        <v>551.3377637167597</v>
       </c>
       <c r="AC5" t="n">
-        <v>436.3168816344985</v>
+        <v>498.7188613550428</v>
       </c>
       <c r="AD5" t="n">
-        <v>352533.484972125</v>
+        <v>402952.7749561226</v>
       </c>
       <c r="AE5" t="n">
-        <v>482351.8668185663</v>
+        <v>551337.7637167597</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.565320321944642e-06</v>
+        <v>3.755532446662684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.255859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>436316.8816344985</v>
+        <v>498718.8613550428</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.0575659220016</v>
+        <v>376.4285870616806</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.6533698715294</v>
+        <v>515.0461996750004</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.5980307118787</v>
+        <v>465.8909132498989</v>
       </c>
       <c r="AD2" t="n">
-        <v>322057.5659220016</v>
+        <v>376428.5870616806</v>
       </c>
       <c r="AE2" t="n">
-        <v>440653.3698715294</v>
+        <v>515046.1996750004</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562260545736205e-06</v>
+        <v>3.964133331542252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>398598.0307118787</v>
+        <v>465890.9132498989</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.8872286471082</v>
+        <v>363.0876575861951</v>
       </c>
       <c r="AB3" t="n">
-        <v>422.633133377747</v>
+        <v>496.7925514063709</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.2976202975022</v>
+        <v>449.3793675528713</v>
       </c>
       <c r="AD3" t="n">
-        <v>308887.2286471082</v>
+        <v>363087.657586195</v>
       </c>
       <c r="AE3" t="n">
-        <v>422633.133377747</v>
+        <v>496792.5514063709</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.637919118256891e-06</v>
+        <v>4.081186481989912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>382297.6202975022</v>
+        <v>449379.3675528712</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.8093006113436</v>
+        <v>528.9810247053003</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.9725910355477</v>
+        <v>723.7751749975603</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.2762595402517</v>
+        <v>654.6990881206304</v>
       </c>
       <c r="AD2" t="n">
-        <v>464809.3006113436</v>
+        <v>528981.0247053003</v>
       </c>
       <c r="AE2" t="n">
-        <v>635972.5910355477</v>
+        <v>723775.1749975602</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.149855587482978e-06</v>
+        <v>3.249063782378831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.61197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>575276.2595402517</v>
+        <v>654699.0881206305</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.5463153460857</v>
+        <v>372.6112330737262</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.1126336943456</v>
+        <v>509.8231275389089</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.7769718119557</v>
+        <v>461.1663237878482</v>
       </c>
       <c r="AD3" t="n">
-        <v>316546.3153460857</v>
+        <v>372611.2330737262</v>
       </c>
       <c r="AE3" t="n">
-        <v>433112.6336943456</v>
+        <v>509823.1275389089</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.639607351932844e-06</v>
+        <v>3.98922267002448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>391776.9718119557</v>
+        <v>461166.3237878482</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.0425422175565</v>
+        <v>374.107459945197</v>
       </c>
       <c r="AB4" t="n">
-        <v>435.1598373087629</v>
+        <v>511.8703311533262</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.6287931866813</v>
+        <v>463.0181451625738</v>
       </c>
       <c r="AD4" t="n">
-        <v>318042.5422175565</v>
+        <v>374107.459945197</v>
       </c>
       <c r="AE4" t="n">
-        <v>435159.8373087629</v>
+        <v>511870.3311533262</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639504246298223e-06</v>
+        <v>3.989066847100766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>393628.7931866813</v>
+        <v>463018.1451625738</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.7503545260333</v>
+        <v>359.5767846400008</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.7093679330594</v>
+        <v>491.9888201526052</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.6528949233251</v>
+        <v>445.0340976678858</v>
       </c>
       <c r="AD2" t="n">
-        <v>306750.3545260333</v>
+        <v>359576.7846400008</v>
       </c>
       <c r="AE2" t="n">
-        <v>419709.3679330594</v>
+        <v>491988.8201526052</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57706060326047e-06</v>
+        <v>4.073013333838052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>379652.894923325</v>
+        <v>445034.0976678858</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.4517772477774</v>
+        <v>990.5824455700496</v>
       </c>
       <c r="AB2" t="n">
-        <v>1227.933114408504</v>
+        <v>1355.35860344215</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.740901384306</v>
+        <v>1226.005080587378</v>
       </c>
       <c r="AD2" t="n">
-        <v>897451.7772477774</v>
+        <v>990582.4455700496</v>
       </c>
       <c r="AE2" t="n">
-        <v>1227933.114408504</v>
+        <v>1355358.60344215</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49425731483434e-06</v>
+        <v>2.178457251398189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.85286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110740.901384306</v>
+        <v>1226005.080587378</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.534956860467</v>
+        <v>544.7689840815287</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.3303482670202</v>
+        <v>745.376957531726</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.927592221915</v>
+        <v>674.2392268480277</v>
       </c>
       <c r="AD3" t="n">
-        <v>485534.956860467</v>
+        <v>544768.9840815287</v>
       </c>
       <c r="AE3" t="n">
-        <v>664330.3482670202</v>
+        <v>745376.957531726</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.187544466928705e-06</v>
+        <v>3.189191084712973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>600927.592221915</v>
+        <v>674239.2268480277</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.5708097910492</v>
+        <v>447.8047475035599</v>
       </c>
       <c r="AB4" t="n">
-        <v>531.6597244903832</v>
+        <v>612.7062112855403</v>
       </c>
       <c r="AC4" t="n">
-        <v>480.9188665741301</v>
+        <v>554.2303904190162</v>
       </c>
       <c r="AD4" t="n">
-        <v>388570.8097910492</v>
+        <v>447804.7475035599</v>
       </c>
       <c r="AE4" t="n">
-        <v>531659.7244903832</v>
+        <v>612706.2112855404</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451822504610955e-06</v>
+        <v>3.574478412309565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>480918.8665741301</v>
+        <v>554230.3904190162</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.5216437487277</v>
+        <v>410.2814883173491</v>
       </c>
       <c r="AB5" t="n">
-        <v>491.913373952521</v>
+        <v>561.3652326576045</v>
       </c>
       <c r="AC5" t="n">
-        <v>444.9658519472482</v>
+        <v>507.7893227338143</v>
       </c>
       <c r="AD5" t="n">
-        <v>359521.6437487277</v>
+        <v>410281.4883173491</v>
       </c>
       <c r="AE5" t="n">
-        <v>491913.373952521</v>
+        <v>561365.2326576045</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.544860625808763e-06</v>
+        <v>3.710117413549654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.24283854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>444965.8519472482</v>
+        <v>507789.3227338144</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>359.5965746847039</v>
+        <v>410.3564192533252</v>
       </c>
       <c r="AB6" t="n">
-        <v>492.0158977648431</v>
+        <v>561.4677564699266</v>
       </c>
       <c r="AC6" t="n">
-        <v>445.0585910308153</v>
+        <v>507.8820618173816</v>
       </c>
       <c r="AD6" t="n">
-        <v>359596.5746847038</v>
+        <v>410356.4192533252</v>
       </c>
       <c r="AE6" t="n">
-        <v>492015.8977648431</v>
+        <v>561467.7564699266</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.550795156173232e-06</v>
+        <v>3.718769283999125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>445058.5910308153</v>
+        <v>507882.0618173815</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.5240776685537</v>
+        <v>362.9216326623324</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.2950336033663</v>
+        <v>496.5653887810396</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.6598584665006</v>
+        <v>449.1738850096767</v>
       </c>
       <c r="AD2" t="n">
-        <v>303524.0776685537</v>
+        <v>362921.6326623324</v>
       </c>
       <c r="AE2" t="n">
-        <v>415295.0336033663</v>
+        <v>496565.3887810396</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511768600797002e-06</v>
+        <v>4.024443307088728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>375659.8584665006</v>
+        <v>449173.8850096767</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.6766108654469</v>
+        <v>698.7755262632031</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.7100977731753</v>
+        <v>956.0955028338169</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.1377656348591</v>
+        <v>864.8470899318229</v>
       </c>
       <c r="AD2" t="n">
-        <v>624676.610865447</v>
+        <v>698775.5262632031</v>
       </c>
       <c r="AE2" t="n">
-        <v>854710.0977731753</v>
+        <v>956095.5028338169</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836220526779261e-06</v>
+        <v>2.726499557617682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.64322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>773137.7656348591</v>
+        <v>864847.0899318228</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.804615057642</v>
+        <v>427.2039814980305</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.9289418851456</v>
+        <v>584.5193343951219</v>
       </c>
       <c r="AC3" t="n">
-        <v>467.5939691859532</v>
+        <v>528.733629498489</v>
       </c>
       <c r="AD3" t="n">
-        <v>377804.615057642</v>
+        <v>427203.9814980305</v>
       </c>
       <c r="AE3" t="n">
-        <v>516928.9418851456</v>
+        <v>584519.3343951219</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47012063276148e-06</v>
+        <v>3.667741817645032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.115234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>467593.9691859532</v>
+        <v>528733.629498489</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.600872782059</v>
+        <v>383.9148983678758</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.8156756891034</v>
+        <v>525.289301076882</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.1223901496711</v>
+        <v>475.1564274302681</v>
       </c>
       <c r="AD4" t="n">
-        <v>334600.872782059</v>
+        <v>383914.8983678758</v>
       </c>
       <c r="AE4" t="n">
-        <v>457815.6756891034</v>
+        <v>525289.3010768821</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.606851990001601e-06</v>
+        <v>3.870766443277304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.42513020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>414122.3901496711</v>
+        <v>475156.4274302681</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>755.2652937114556</v>
+        <v>838.6797627273302</v>
       </c>
       <c r="AB2" t="n">
-        <v>1033.387294809168</v>
+        <v>1147.518651303341</v>
       </c>
       <c r="AC2" t="n">
-        <v>934.762261760758</v>
+        <v>1038.001081775492</v>
       </c>
       <c r="AD2" t="n">
-        <v>755265.2937114555</v>
+        <v>838679.7627273302</v>
       </c>
       <c r="AE2" t="n">
-        <v>1033387.294809168</v>
+        <v>1147518.651303341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.656092994295593e-06</v>
+        <v>2.435189488221799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>934762.261760758</v>
+        <v>1038001.081775492</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.0927894186305</v>
+        <v>485.6023322701574</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.3671964866385</v>
+        <v>664.422534274952</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.5960114184644</v>
+        <v>601.0109801266334</v>
       </c>
       <c r="AD3" t="n">
-        <v>427092.7894186305</v>
+        <v>485602.3322701573</v>
       </c>
       <c r="AE3" t="n">
-        <v>584367.1964866385</v>
+        <v>664422.534274952</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.322137812902199e-06</v>
+        <v>3.414570082513416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.66861979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>528596.0114184644</v>
+        <v>601010.9801266334</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.0942752444324</v>
+        <v>399.160060628292</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.6461883419124</v>
+        <v>546.1484046506748</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.0603065071953</v>
+        <v>494.0247674349137</v>
       </c>
       <c r="AD4" t="n">
-        <v>349094.2752444324</v>
+        <v>399160.060628292</v>
       </c>
       <c r="AE4" t="n">
-        <v>477646.1883419124</v>
+        <v>546148.4046506748</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.569503601923567e-06</v>
+        <v>3.778307246576925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.353515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>432060.3065071953</v>
+        <v>494024.7674349137</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>347.9414986482379</v>
+        <v>398.0072840320975</v>
       </c>
       <c r="AB5" t="n">
-        <v>476.0689085460851</v>
+        <v>544.5711248548473</v>
       </c>
       <c r="AC5" t="n">
-        <v>430.6335600813555</v>
+        <v>492.598021009074</v>
       </c>
       <c r="AD5" t="n">
-        <v>347941.4986482379</v>
+        <v>398007.2840320975</v>
       </c>
       <c r="AE5" t="n">
-        <v>476068.9085460851</v>
+        <v>544571.1248548473</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.573891248949961e-06</v>
+        <v>3.784759029148016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>430633.5600813556</v>
+        <v>492598.021009074</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.032383574263</v>
+        <v>1178.930985219642</v>
       </c>
       <c r="AB2" t="n">
-        <v>1472.274978404722</v>
+        <v>1613.065384741846</v>
       </c>
       <c r="AC2" t="n">
-        <v>1331.763120816685</v>
+        <v>1459.116688373571</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076032.383574263</v>
+        <v>1178930.985219642</v>
       </c>
       <c r="AE2" t="n">
-        <v>1472274.978404722</v>
+        <v>1613065.384741846</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.345619167050202e-06</v>
+        <v>1.946804815330286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.76692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1331763.120816685</v>
+        <v>1459116.688373571</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.6560005715089</v>
+        <v>605.2266213835709</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.2764155737451</v>
+        <v>828.0977640910959</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.1981050348081</v>
+        <v>749.0652757287525</v>
       </c>
       <c r="AD3" t="n">
-        <v>536656.0005715089</v>
+        <v>605226.6213835708</v>
       </c>
       <c r="AE3" t="n">
-        <v>734276.4155737452</v>
+        <v>828097.7640910959</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.066049627518051e-06</v>
+        <v>2.989103798499494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.82747395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>664198.1050348082</v>
+        <v>749065.2757287525</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.1729103561519</v>
+        <v>489.664971114678</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.5275067737917</v>
+        <v>669.9812159730014</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.3094429694409</v>
+        <v>606.0391490450799</v>
       </c>
       <c r="AD4" t="n">
-        <v>438172.9103561519</v>
+        <v>489664.971114678</v>
       </c>
       <c r="AE4" t="n">
-        <v>599527.5067737917</v>
+        <v>669981.2159730014</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.337940365635832e-06</v>
+        <v>3.382467843225274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10221354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>542309.4429694408</v>
+        <v>606039.1490450798</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.8068755081773</v>
+        <v>433.2135954121317</v>
       </c>
       <c r="AB5" t="n">
-        <v>522.4050112008375</v>
+        <v>592.7419532778495</v>
       </c>
       <c r="AC5" t="n">
-        <v>472.5474101318669</v>
+        <v>536.1714931755671</v>
       </c>
       <c r="AD5" t="n">
-        <v>381806.8755081773</v>
+        <v>433213.5954121317</v>
       </c>
       <c r="AE5" t="n">
-        <v>522405.0112008375</v>
+        <v>592741.9532778495</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486073291145485e-06</v>
+        <v>3.59678248718456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.32421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>472547.4101318669</v>
+        <v>536171.4931755671</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>371.7863459607062</v>
+        <v>423.1930658646607</v>
       </c>
       <c r="AB6" t="n">
-        <v>508.694480599424</v>
+        <v>579.031422676436</v>
       </c>
       <c r="AC6" t="n">
-        <v>460.1453933282019</v>
+        <v>523.769476371902</v>
       </c>
       <c r="AD6" t="n">
-        <v>371786.3459607062</v>
+        <v>423193.0658646607</v>
       </c>
       <c r="AE6" t="n">
-        <v>508694.480599424</v>
+        <v>579031.422676436</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.517036272398773e-06</v>
+        <v>3.641578877186215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.17122395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>460145.3933282018</v>
+        <v>523769.476371902</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.6972982398502</v>
+        <v>582.3785207594211</v>
       </c>
       <c r="AB2" t="n">
-        <v>708.336282644653</v>
+        <v>796.8359848300752</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.7336619852632</v>
+        <v>720.7870768042206</v>
       </c>
       <c r="AD2" t="n">
-        <v>517697.2982398502</v>
+        <v>582378.5207594212</v>
       </c>
       <c r="AE2" t="n">
-        <v>708336.282644653</v>
+        <v>796835.9848300752</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03834082724384e-06</v>
+        <v>3.060945058431065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.259765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>640733.6619852632</v>
+        <v>720787.0768042207</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.5364530970057</v>
+        <v>381.1217768748266</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.0450926651537</v>
+        <v>521.4676290262685</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.6660522423924</v>
+        <v>471.6994903964147</v>
       </c>
       <c r="AD3" t="n">
-        <v>324536.4530970057</v>
+        <v>381121.7768748266</v>
       </c>
       <c r="AE3" t="n">
-        <v>444045.0926651537</v>
+        <v>521467.6290262685</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.620418475063672e-06</v>
+        <v>3.935042106335681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.646484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>401666.0522423924</v>
+        <v>471699.4903964147</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.0341354590154</v>
+        <v>380.6194592368363</v>
       </c>
       <c r="AB4" t="n">
-        <v>443.3577995121651</v>
+        <v>520.7803358732798</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.0443533833031</v>
+        <v>471.0777915373254</v>
       </c>
       <c r="AD4" t="n">
-        <v>324034.1354590154</v>
+        <v>380619.4592368363</v>
       </c>
       <c r="AE4" t="n">
-        <v>443357.7995121651</v>
+        <v>520780.3358732798</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.626425573405699e-06</v>
+        <v>3.944062873490897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.62044270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>401044.3533833032</v>
+        <v>471077.7915373254</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.6865545922691</v>
+        <v>425.6086471908116</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.1896975297575</v>
+        <v>582.3365276148024</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.784224642728</v>
+        <v>526.7591467336947</v>
       </c>
       <c r="AD2" t="n">
-        <v>370686.5545922691</v>
+        <v>425608.6471908116</v>
       </c>
       <c r="AE2" t="n">
-        <v>507189.6975297575</v>
+        <v>582336.5276148025</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.412176674031972e-06</v>
+        <v>3.699668131524875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.31315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>458784.224642728</v>
+        <v>526759.1467336947</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.5728671286183</v>
+        <v>361.722108589652</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.412474780816</v>
+        <v>494.9241470255309</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.3345122754366</v>
+        <v>447.6892810638165</v>
       </c>
       <c r="AD3" t="n">
-        <v>314572.8671286183</v>
+        <v>361722.1085896519</v>
       </c>
       <c r="AE3" t="n">
-        <v>430412.474780816</v>
+        <v>494924.1470255309</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.641685569679404e-06</v>
+        <v>4.05167665406356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.06966145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>389334.5122754365</v>
+        <v>447689.2810638165</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.501232442773</v>
+        <v>357.1790530734128</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.2637757575929</v>
+        <v>488.7081380427485</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.6315838256573</v>
+        <v>442.0665192541275</v>
       </c>
       <c r="AD2" t="n">
-        <v>303501.232442773</v>
+        <v>357179.0530734129</v>
       </c>
       <c r="AE2" t="n">
-        <v>415263.7757575929</v>
+        <v>488708.1380427486</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613116208703346e-06</v>
+        <v>4.082942531426534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.66861979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>375631.5838256573</v>
+        <v>442066.5192541275</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.6609457229174</v>
+        <v>358.3387663535572</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.8505466304254</v>
+        <v>490.2949089155811</v>
       </c>
       <c r="AC3" t="n">
-        <v>377.0669155134335</v>
+        <v>443.5018509419038</v>
       </c>
       <c r="AD3" t="n">
-        <v>304660.9457229174</v>
+        <v>358338.7663535572</v>
       </c>
       <c r="AE3" t="n">
-        <v>416850.5466304254</v>
+        <v>490294.9089155811</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.61695612252082e-06</v>
+        <v>4.088942321022635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>377066.9155134335</v>
+        <v>443501.8509419038</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.6399475734134</v>
+        <v>376.8887455007105</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.9772336723105</v>
+        <v>515.6758087520385</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.3681783885149</v>
+        <v>466.4604333202864</v>
       </c>
       <c r="AD2" t="n">
-        <v>318639.9475734134</v>
+        <v>376888.7455007104</v>
       </c>
       <c r="AE2" t="n">
-        <v>435977.2336723105</v>
+        <v>515675.8087520385</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377811655867465e-06</v>
+        <v>3.875062904563796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>394368.1783885149</v>
+        <v>466460.4333202865</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>688.9658318929457</v>
+        <v>763.5553412999159</v>
       </c>
       <c r="AB2" t="n">
-        <v>942.6734462232589</v>
+        <v>1044.730103650787</v>
       </c>
       <c r="AC2" t="n">
-        <v>852.7060155662017</v>
+        <v>945.0225288462651</v>
       </c>
       <c r="AD2" t="n">
-        <v>688965.8318929457</v>
+        <v>763555.3412999159</v>
       </c>
       <c r="AE2" t="n">
-        <v>942673.4462232589</v>
+        <v>1044730.103650787</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.741559207268654e-06</v>
+        <v>2.57294614318655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.408203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>852706.0155662016</v>
+        <v>945022.5288462652</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.1036133784772</v>
+        <v>460.0133906524334</v>
       </c>
       <c r="AB3" t="n">
-        <v>550.1759033838606</v>
+        <v>629.4106154491519</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.6678873416342</v>
+        <v>569.3405496940311</v>
       </c>
       <c r="AD3" t="n">
-        <v>402103.6133784772</v>
+        <v>460013.3906524334</v>
       </c>
       <c r="AE3" t="n">
-        <v>550175.9033838606</v>
+        <v>629410.615449152</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3955425092461e-06</v>
+        <v>3.539128520167149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38216145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>497667.8873416343</v>
+        <v>569340.5496940311</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>340.941622327404</v>
+        <v>390.6395448167106</v>
       </c>
       <c r="AB4" t="n">
-        <v>466.4913689511718</v>
+        <v>534.4902590186412</v>
       </c>
       <c r="AC4" t="n">
-        <v>421.9700874232196</v>
+        <v>483.4792588596912</v>
       </c>
       <c r="AD4" t="n">
-        <v>340941.622327404</v>
+        <v>390639.5448167106</v>
       </c>
       <c r="AE4" t="n">
-        <v>466491.3689511718</v>
+        <v>534490.2590186412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.590526237286357e-06</v>
+        <v>3.827193737216025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.373046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>421970.0874232196</v>
+        <v>483479.2588596913</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.0894601385779</v>
+        <v>390.7873826278845</v>
       </c>
       <c r="AB5" t="n">
-        <v>466.6936471665639</v>
+        <v>534.6925372340332</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.1530604896339</v>
+        <v>483.6622319261055</v>
       </c>
       <c r="AD5" t="n">
-        <v>341089.4601385779</v>
+        <v>390787.3826278845</v>
       </c>
       <c r="AE5" t="n">
-        <v>466693.6471665639</v>
+        <v>534692.5372340332</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.596139405214789e-06</v>
+        <v>3.835486523767432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.34700520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>422153.0604896339</v>
+        <v>483662.2319261055</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>982.9905153381075</v>
+        <v>1085.167627717444</v>
       </c>
       <c r="AB2" t="n">
-        <v>1344.970989566483</v>
+        <v>1484.774222459949</v>
       </c>
       <c r="AC2" t="n">
-        <v>1216.608846000897</v>
+        <v>1343.069454562081</v>
       </c>
       <c r="AD2" t="n">
-        <v>982990.5153381075</v>
+        <v>1085167.627717444</v>
       </c>
       <c r="AE2" t="n">
-        <v>1344970.989566483</v>
+        <v>1484774.222459949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.418208983265113e-06</v>
+        <v>2.059479143184041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.78059895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1216608.846000897</v>
+        <v>1343069.454562081</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.5494298328364</v>
+        <v>578.695951703918</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.5562537484784</v>
+        <v>791.7973313848551</v>
       </c>
       <c r="AC3" t="n">
-        <v>631.8870253205826</v>
+        <v>716.229305372018</v>
       </c>
       <c r="AD3" t="n">
-        <v>510549.4298328364</v>
+        <v>578695.9517039181</v>
       </c>
       <c r="AE3" t="n">
-        <v>698556.2537484784</v>
+        <v>791797.3313848551</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.125937494284933e-06</v>
+        <v>3.08722055836414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>631887.0253205826</v>
+        <v>716229.305372018</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.4818857760462</v>
+        <v>469.0994248064212</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.2711811846194</v>
+        <v>641.8425282261743</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.7996859979001</v>
+        <v>580.5859781639138</v>
       </c>
       <c r="AD4" t="n">
-        <v>409481.8857760462</v>
+        <v>469099.4248064212</v>
       </c>
       <c r="AE4" t="n">
-        <v>560271.1811846194</v>
+        <v>641842.5282261743</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390979828862347e-06</v>
+        <v>3.472106824467387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.919921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>506799.6859979001</v>
+        <v>580585.9781639137</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.7609058452937</v>
+        <v>416.8495515435129</v>
       </c>
       <c r="AB5" t="n">
-        <v>500.4502076098595</v>
+        <v>570.3519465261409</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.6879421818514</v>
+        <v>515.9183572436699</v>
       </c>
       <c r="AD5" t="n">
-        <v>365760.9058452937</v>
+        <v>416849.5515435128</v>
       </c>
       <c r="AE5" t="n">
-        <v>500450.2076098595</v>
+        <v>570351.9465261409</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.529242156638678e-06</v>
+        <v>3.67288709289289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>452687.9421818514</v>
+        <v>515918.3572436699</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.8621127345538</v>
+        <v>416.950758432773</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.5886833406781</v>
+        <v>570.4904222569595</v>
       </c>
       <c r="AC6" t="n">
-        <v>452.8132019832726</v>
+        <v>516.043617045091</v>
       </c>
       <c r="AD6" t="n">
-        <v>365862.1127345538</v>
+        <v>416950.758432773</v>
       </c>
       <c r="AE6" t="n">
-        <v>500588.683340678</v>
+        <v>570490.4222569595</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.532753279581523e-06</v>
+        <v>3.677985836840552e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.197265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>452813.2019832726</v>
+        <v>516043.617045091</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.7237724813954</v>
+        <v>411.7950713294348</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.1932971810058</v>
+        <v>563.4361837093101</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.7004632044519</v>
+        <v>509.6626251237432</v>
       </c>
       <c r="AD2" t="n">
-        <v>340723.7724813954</v>
+        <v>411795.0713294348</v>
       </c>
       <c r="AE2" t="n">
-        <v>466193.2971810058</v>
+        <v>563436.18370931</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.102277744196981e-06</v>
+        <v>3.504371747882773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>421700.4632044519</v>
+        <v>509662.6251237432</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.4508018270253</v>
+        <v>475.9057887789806</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.333383104901</v>
+        <v>651.1552956890165</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.4741970682464</v>
+        <v>589.0099481706533</v>
       </c>
       <c r="AD2" t="n">
-        <v>412450.8018270253</v>
+        <v>475905.7887789806</v>
       </c>
       <c r="AE2" t="n">
-        <v>564333.3831049011</v>
+        <v>651155.2956890165</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.276476824448341e-06</v>
+        <v>3.464585153324243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94466145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>510474.1970682464</v>
+        <v>589009.9481706533</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.8237223649339</v>
+        <v>367.3361683410734</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.6509736314357</v>
+        <v>502.6055512522619</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.9320035164531</v>
+        <v>454.6375828520668</v>
       </c>
       <c r="AD3" t="n">
-        <v>311823.7223649339</v>
+        <v>367336.1683410734</v>
       </c>
       <c r="AE3" t="n">
-        <v>426650.9736314357</v>
+        <v>502605.5512522619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.640909598612852e-06</v>
+        <v>4.019217805497672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.880859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>385932.0035164531</v>
+        <v>454637.5828520668</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.3761118661126</v>
+        <v>638.7867613888218</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.5725388889089</v>
+        <v>874.0162282151639</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.743861493228</v>
+        <v>790.6013460837888</v>
       </c>
       <c r="AD2" t="n">
-        <v>565376.1118661127</v>
+        <v>638786.7613888218</v>
       </c>
       <c r="AE2" t="n">
-        <v>773572.5388889089</v>
+        <v>874016.2282151639</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.933964394361611e-06</v>
+        <v>2.887236126198977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.93684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>699743.861493228</v>
+        <v>790601.3460837888</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.1507159837666</v>
+        <v>400.2289232004133</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.5139483501409</v>
+        <v>547.6108695767399</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.7041960865679</v>
+        <v>495.3476567610176</v>
       </c>
       <c r="AD3" t="n">
-        <v>343150.7159837666</v>
+        <v>400228.9232004133</v>
       </c>
       <c r="AE3" t="n">
-        <v>469513.9483501409</v>
+        <v>547610.8695767398</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.559534458864531e-06</v>
+        <v>3.821156365355013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79622395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>424704.1960865679</v>
+        <v>495347.6567610176</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.4569667784047</v>
+        <v>378.5396345511635</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.7775565617869</v>
+        <v>517.9346279829531</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.7559792338034</v>
+        <v>468.5036740140752</v>
       </c>
       <c r="AD4" t="n">
-        <v>329456.9667784047</v>
+        <v>378539.6345511635</v>
       </c>
       <c r="AE4" t="n">
-        <v>450777.5565617869</v>
+        <v>517934.6279829531</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616486792226064e-06</v>
+        <v>3.906181112879916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>407755.9792338034</v>
+        <v>468503.6740140751</v>
       </c>
     </row>
   </sheetData>
